--- a/Lookup table_prototyping_greet2022.xlsx
+++ b/Lookup table_prototyping_greet2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oul\Documents\dash_development_in_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D307636-B25B-4A27-9C57-ADB0B8D06D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CE6D02-76B3-4391-A861-712E6D912243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="2610" windowWidth="29040" windowHeight="15840" tabRatio="745" activeTab="2" xr2:uid="{A628798E-305C-4246-A75A-2AB1A71444C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="745" activeTab="7" xr2:uid="{A628798E-305C-4246-A75A-2AB1A71444C5}"/>
   </bookViews>
   <sheets>
     <sheet name="End use test" sheetId="14" r:id="rId1"/>
@@ -1891,10 +1891,10 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7938,7 +7938,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8470,7 +8470,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="6" t="s">
         <v>328</v>
       </c>
       <c r="B21">
@@ -8497,7 +8497,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B22">
@@ -8524,7 +8524,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="6" t="s">
         <v>330</v>
       </c>
       <c r="B23">
@@ -8551,7 +8551,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="6" t="s">
         <v>331</v>
       </c>
       <c r="B24">
@@ -8578,7 +8578,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="6" t="s">
         <v>332</v>
       </c>
       <c r="B25">
@@ -8605,7 +8605,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="6" t="s">
         <v>333</v>
       </c>
       <c r="B26">
@@ -8632,7 +8632,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="6" t="s">
         <v>334</v>
       </c>
       <c r="B27">
@@ -8659,7 +8659,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="6" t="s">
         <v>335</v>
       </c>
       <c r="B28">
@@ -8697,8 +8697,8 @@
   </sheetPr>
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8860,22 +8860,22 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="126">
+      <c r="B3" s="125">
         <v>186094.49507276824</v>
       </c>
-      <c r="C3" s="126">
+      <c r="C3" s="125">
         <v>2072402.1612015334</v>
       </c>
-      <c r="D3" s="126">
+      <c r="D3" s="125">
         <v>3108119.3839218104</v>
       </c>
-      <c r="E3" s="126">
-        <v>0</v>
-      </c>
-      <c r="F3" s="126">
+      <c r="E3" s="125">
+        <v>0</v>
+      </c>
+      <c r="F3" s="125">
         <v>113249.59303072518</v>
       </c>
-      <c r="G3" s="126">
+      <c r="G3" s="125">
         <v>0</v>
       </c>
       <c r="H3" s="50">
@@ -8934,22 +8934,22 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="126">
+      <c r="B4" s="125">
         <v>180156.32120244121</v>
       </c>
-      <c r="C4" s="126">
+      <c r="C4" s="125">
         <v>1644052.7363118604</v>
       </c>
-      <c r="D4" s="126">
+      <c r="D4" s="125">
         <v>3105649.4651196641</v>
       </c>
-      <c r="E4" s="126">
-        <v>0</v>
-      </c>
-      <c r="F4" s="126">
+      <c r="E4" s="125">
+        <v>0</v>
+      </c>
+      <c r="F4" s="125">
         <v>112621.05874733524</v>
       </c>
-      <c r="G4" s="126">
+      <c r="G4" s="125">
         <v>0</v>
       </c>
       <c r="H4" s="50">
@@ -9008,22 +9008,22 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="126">
+      <c r="B5" s="125">
         <v>9786.9918916111783</v>
       </c>
-      <c r="C5" s="126">
+      <c r="C5" s="125">
         <v>728816.38543196069</v>
       </c>
-      <c r="D5" s="126">
+      <c r="D5" s="125">
         <v>3048641.6698973337</v>
       </c>
-      <c r="E5" s="126">
-        <v>0</v>
-      </c>
-      <c r="F5" s="126">
+      <c r="E5" s="125">
+        <v>0</v>
+      </c>
+      <c r="F5" s="125">
         <v>1069.2908903426282</v>
       </c>
-      <c r="G5" s="126">
+      <c r="G5" s="125">
         <v>0</v>
       </c>
       <c r="H5" s="50">
@@ -9082,22 +9082,22 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="126">
+      <c r="B6" s="125">
         <v>123998.68374447372</v>
       </c>
-      <c r="C6" s="126">
+      <c r="C6" s="125">
         <v>893430.9830457418</v>
       </c>
-      <c r="D6" s="126">
+      <c r="D6" s="125">
         <v>10305.909398414617</v>
       </c>
-      <c r="E6" s="126">
-        <v>0</v>
-      </c>
-      <c r="F6" s="126">
+      <c r="E6" s="125">
+        <v>0</v>
+      </c>
+      <c r="F6" s="125">
         <v>111088.13476192606</v>
       </c>
-      <c r="G6" s="126">
+      <c r="G6" s="125">
         <v>0</v>
       </c>
       <c r="H6" s="50">
@@ -9156,22 +9156,22 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="126">
+      <c r="B7" s="125">
         <v>46370.645566356325</v>
       </c>
-      <c r="C7" s="126">
+      <c r="C7" s="125">
         <v>21805.367834157689</v>
       </c>
-      <c r="D7" s="126">
+      <c r="D7" s="125">
         <v>46701.885823915771</v>
       </c>
-      <c r="E7" s="126">
-        <v>0</v>
-      </c>
-      <c r="F7" s="126">
+      <c r="E7" s="125">
+        <v>0</v>
+      </c>
+      <c r="F7" s="125">
         <v>463.63309506655048</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="125">
         <v>0</v>
       </c>
       <c r="H7" s="50">
@@ -9230,22 +9230,22 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="126">
+      <c r="B8" s="125">
         <v>23.187622321321854</v>
       </c>
-      <c r="C8" s="126">
+      <c r="C8" s="125">
         <v>173.10359896305576</v>
       </c>
-      <c r="D8" s="126">
+      <c r="D8" s="125">
         <v>135.66242385197384</v>
       </c>
-      <c r="E8" s="126">
-        <v>0</v>
-      </c>
-      <c r="F8" s="126">
+      <c r="E8" s="125">
+        <v>0</v>
+      </c>
+      <c r="F8" s="125">
         <v>3.4611542510826787</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="125">
         <v>0</v>
       </c>
       <c r="H8" s="50">
@@ -9304,22 +9304,22 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="126">
+      <c r="B9" s="125">
         <v>7.5011532988214453</v>
       </c>
-      <c r="C9" s="126">
+      <c r="C9" s="125">
         <v>15.133933244426496</v>
       </c>
-      <c r="D9" s="126">
+      <c r="D9" s="125">
         <v>26.541650933703714</v>
       </c>
-      <c r="E9" s="126">
-        <v>0</v>
-      </c>
-      <c r="F9" s="126">
+      <c r="E9" s="125">
+        <v>0</v>
+      </c>
+      <c r="F9" s="125">
         <v>11.110765191701168</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="125">
         <v>-28.216209696614314</v>
       </c>
       <c r="H9" s="50">
@@ -9378,22 +9378,22 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="126">
+      <c r="B10" s="125">
         <v>12.422546675550979</v>
       </c>
-      <c r="C10" s="126">
+      <c r="C10" s="125">
         <v>54.19928329542428</v>
       </c>
-      <c r="D10" s="126">
+      <c r="D10" s="125">
         <v>97.11129587282521</v>
       </c>
-      <c r="E10" s="126">
-        <v>0</v>
-      </c>
-      <c r="F10" s="126">
+      <c r="E10" s="125">
+        <v>0</v>
+      </c>
+      <c r="F10" s="125">
         <v>35.025568879881035</v>
       </c>
-      <c r="G10" s="126">
+      <c r="G10" s="125">
         <v>-42.331377382329954</v>
       </c>
       <c r="H10" s="50">
@@ -9452,22 +9452,22 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="126">
+      <c r="B11" s="125">
         <v>19.071196687104383</v>
       </c>
-      <c r="C11" s="126">
+      <c r="C11" s="125">
         <v>98.188501567890555</v>
       </c>
-      <c r="D11" s="126">
+      <c r="D11" s="125">
         <v>234.94388554989396</v>
       </c>
-      <c r="E11" s="126">
-        <v>0</v>
-      </c>
-      <c r="F11" s="126">
+      <c r="E11" s="125">
+        <v>0</v>
+      </c>
+      <c r="F11" s="125">
         <v>41.227954149828165</v>
       </c>
-      <c r="G11" s="126">
+      <c r="G11" s="125">
         <v>-13.685436653377941</v>
       </c>
       <c r="H11" s="50">
@@ -9526,22 +9526,22 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="126">
+      <c r="B12" s="125">
         <v>1.3608058322593073</v>
       </c>
-      <c r="C12" s="126">
+      <c r="C12" s="125">
         <v>14.79958524029915</v>
       </c>
-      <c r="D12" s="126">
+      <c r="D12" s="125">
         <v>49.490926461655775</v>
       </c>
-      <c r="E12" s="126">
-        <v>0</v>
-      </c>
-      <c r="F12" s="126">
+      <c r="E12" s="125">
+        <v>0</v>
+      </c>
+      <c r="F12" s="125">
         <v>0.41029045603247111</v>
       </c>
-      <c r="G12" s="126">
+      <c r="G12" s="125">
         <v>-5.4061596857689773</v>
       </c>
       <c r="H12" s="50">
@@ -9600,22 +9600,22 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="126">
+      <c r="B13" s="125">
         <v>1.1438709851240312</v>
       </c>
-      <c r="C13" s="126">
+      <c r="C13" s="125">
         <v>8.1186819852087329</v>
       </c>
-      <c r="D13" s="126">
+      <c r="D13" s="125">
         <v>21.975169116137472</v>
       </c>
-      <c r="E13" s="126">
-        <v>0</v>
-      </c>
-      <c r="F13" s="126">
+      <c r="E13" s="125">
+        <v>0</v>
+      </c>
+      <c r="F13" s="125">
         <v>0.38679426325231481</v>
       </c>
-      <c r="G13" s="126">
+      <c r="G13" s="125">
         <v>-5.4061596857689773</v>
       </c>
       <c r="H13" s="50">
@@ -9674,22 +9674,22 @@
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="126">
+      <c r="B14" s="125">
         <v>5.2148770711776189</v>
       </c>
-      <c r="C14" s="126">
+      <c r="C14" s="125">
         <v>86.6792466145004</v>
       </c>
-      <c r="D14" s="126">
+      <c r="D14" s="125">
         <v>310.86145005871089</v>
       </c>
-      <c r="E14" s="126">
-        <v>0</v>
-      </c>
-      <c r="F14" s="126">
+      <c r="E14" s="125">
+        <v>0</v>
+      </c>
+      <c r="F14" s="125">
         <v>11.227367678749063</v>
       </c>
-      <c r="G14" s="126">
+      <c r="G14" s="125">
         <v>-0.27393692777212614</v>
       </c>
       <c r="H14" s="50">
@@ -9748,22 +9748,22 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="126">
+      <c r="B15" s="125">
         <v>0.17301768179602184</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="125">
         <v>0.4263653854267383</v>
       </c>
-      <c r="D15" s="126">
+      <c r="D15" s="125">
         <v>0.89779545683120388</v>
       </c>
-      <c r="E15" s="126">
-        <v>0</v>
-      </c>
-      <c r="F15" s="126">
+      <c r="E15" s="125">
+        <v>0</v>
+      </c>
+      <c r="F15" s="125">
         <v>7.9067379883375796E-2</v>
       </c>
-      <c r="G15" s="126">
+      <c r="G15" s="125">
         <v>-5.72954763659021</v>
       </c>
       <c r="H15" s="50">
@@ -9822,22 +9822,22 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="126">
+      <c r="B16" s="125">
         <v>0.3110698001896765</v>
       </c>
-      <c r="C16" s="126">
+      <c r="C16" s="125">
         <v>2.0716820911339098</v>
       </c>
-      <c r="D16" s="126">
+      <c r="D16" s="125">
         <v>1.7266356010456643</v>
       </c>
-      <c r="E16" s="126">
-        <v>0</v>
-      </c>
-      <c r="F16" s="126">
+      <c r="E16" s="125">
+        <v>0</v>
+      </c>
+      <c r="F16" s="125">
         <v>0.16211356019619858</v>
       </c>
-      <c r="G16" s="126">
+      <c r="G16" s="125">
         <v>0.13580324168234237</v>
       </c>
       <c r="H16" s="50">
@@ -9896,22 +9896,22 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="126">
+      <c r="B17" s="125">
         <v>111.77224464924271</v>
       </c>
-      <c r="C17" s="126">
+      <c r="C17" s="125">
         <v>270.97124572299776</v>
       </c>
-      <c r="D17" s="126">
+      <c r="D17" s="125">
         <v>498.39393522009186</v>
       </c>
-      <c r="E17" s="126">
-        <v>0</v>
-      </c>
-      <c r="F17" s="126">
+      <c r="E17" s="125">
+        <v>0</v>
+      </c>
+      <c r="F17" s="125">
         <v>223.18874113291389</v>
       </c>
-      <c r="G17" s="126">
+      <c r="G17" s="125">
         <v>384.29844655783586</v>
       </c>
       <c r="H17" s="50">
@@ -9970,22 +9970,22 @@
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="126">
+      <c r="B18" s="125">
         <v>0.24401582180145484</v>
       </c>
-      <c r="C18" s="126">
+      <c r="C18" s="125">
         <v>2.597224583249659</v>
       </c>
-      <c r="D18" s="126">
+      <c r="D18" s="125">
         <v>7.1656826033797216</v>
       </c>
-      <c r="E18" s="126">
-        <v>0</v>
-      </c>
-      <c r="F18" s="126">
+      <c r="E18" s="125">
+        <v>0</v>
+      </c>
+      <c r="F18" s="125">
         <v>1.4177914985569811</v>
       </c>
-      <c r="G18" s="126">
+      <c r="G18" s="125">
         <v>-1.3019529375153069</v>
       </c>
       <c r="H18" s="50">
@@ -10044,22 +10044,22 @@
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="126">
+      <c r="B19" s="125">
         <v>13186.722667602997</v>
       </c>
-      <c r="C19" s="126">
+      <c r="C19" s="125">
         <v>127800.99778787572</v>
       </c>
-      <c r="D19" s="126">
+      <c r="D19" s="125">
         <v>309025.2744712985</v>
       </c>
-      <c r="E19" s="126">
-        <v>0</v>
-      </c>
-      <c r="F19" s="126">
+      <c r="E19" s="125">
+        <v>0</v>
+      </c>
+      <c r="F19" s="125">
         <v>6612.5157742586298</v>
       </c>
-      <c r="G19" s="126">
+      <c r="G19" s="125">
         <v>258.20196307358003</v>
       </c>
       <c r="H19" s="50">
@@ -10118,33 +10118,33 @@
       <c r="A20" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="94" t="s">
         <v>328</v>
       </c>
-      <c r="B21" s="126">
+      <c r="B21" s="125">
         <v>2.7709518164194042</v>
       </c>
-      <c r="C21" s="126">
+      <c r="C21" s="125">
         <v>1.0150242313072426</v>
       </c>
-      <c r="D21" s="126">
+      <c r="D21" s="125">
         <v>1.7601979147913644</v>
       </c>
-      <c r="E21" s="126">
-        <v>0</v>
-      </c>
-      <c r="F21" s="126">
+      <c r="E21" s="125">
+        <v>0</v>
+      </c>
+      <c r="F21" s="125">
         <v>0.59395466241739103</v>
       </c>
-      <c r="G21" s="126">
+      <c r="G21" s="125">
         <v>-14.108104848307157</v>
       </c>
       <c r="H21" s="50">
@@ -10203,22 +10203,22 @@
       <c r="A22" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="B22" s="126">
+      <c r="B22" s="125">
         <v>1.9100704704858615</v>
       </c>
-      <c r="C22" s="126">
+      <c r="C22" s="125">
         <v>12.125158379090005</v>
       </c>
-      <c r="D22" s="126">
+      <c r="D22" s="125">
         <v>35.018256654548495</v>
       </c>
-      <c r="E22" s="126">
-        <v>0</v>
-      </c>
-      <c r="F22" s="126">
+      <c r="E22" s="125">
+        <v>0</v>
+      </c>
+      <c r="F22" s="125">
         <v>2.9123286674356534</v>
       </c>
-      <c r="G22" s="126">
+      <c r="G22" s="125">
         <v>-21.165688691164977</v>
       </c>
       <c r="H22" s="50">
@@ -10277,22 +10277,22 @@
       <c r="A23" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="B23" s="126">
+      <c r="B23" s="125">
         <v>2.9398748358909206</v>
       </c>
-      <c r="C23" s="126">
+      <c r="C23" s="125">
         <v>25.731355879367204</v>
       </c>
-      <c r="D23" s="126">
+      <c r="D23" s="125">
         <v>84.059425624626655</v>
       </c>
-      <c r="E23" s="126">
-        <v>0</v>
-      </c>
-      <c r="F23" s="126">
+      <c r="E23" s="125">
+        <v>0</v>
+      </c>
+      <c r="F23" s="125">
         <v>3.4515556640320058</v>
       </c>
-      <c r="G23" s="126">
+      <c r="G23" s="125">
         <v>-6.8427183266889706</v>
       </c>
       <c r="H23" s="50">
@@ -10351,22 +10351,22 @@
       <c r="A24" s="94" t="s">
         <v>331</v>
       </c>
-      <c r="B24" s="126">
+      <c r="B24" s="125">
         <v>0.50272862517322592</v>
       </c>
-      <c r="C24" s="126">
+      <c r="C24" s="125">
         <v>2.9019374583272644</v>
       </c>
-      <c r="D24" s="126">
+      <c r="D24" s="125">
         <v>9.0062308603196826</v>
       </c>
-      <c r="E24" s="126">
-        <v>0</v>
-      </c>
-      <c r="F24" s="126">
+      <c r="E24" s="125">
+        <v>0</v>
+      </c>
+      <c r="F24" s="125">
         <v>1.2654757316781947E-2</v>
       </c>
-      <c r="G24" s="126">
+      <c r="G24" s="125">
         <v>-2.7030798428844887</v>
       </c>
       <c r="H24" s="50">
@@ -10425,22 +10425,22 @@
       <c r="A25" s="94" t="s">
         <v>332</v>
       </c>
-      <c r="B25" s="126">
+      <c r="B25" s="125">
         <v>0.43181700206063867</v>
       </c>
-      <c r="C25" s="126">
+      <c r="C25" s="125">
         <v>2.405490794461528</v>
       </c>
-      <c r="D25" s="126">
+      <c r="D25" s="125">
         <v>7.0122492369158884</v>
       </c>
-      <c r="E25" s="126">
-        <v>0</v>
-      </c>
-      <c r="F25" s="126">
+      <c r="E25" s="125">
+        <v>0</v>
+      </c>
+      <c r="F25" s="125">
         <v>1.1763463500421619E-2</v>
       </c>
-      <c r="G25" s="126">
+      <c r="G25" s="125">
         <v>-2.7030798428844887</v>
       </c>
       <c r="H25" s="50">
@@ -10499,22 +10499,22 @@
       <c r="A26" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="B26" s="126">
+      <c r="B26" s="125">
         <v>1.0996774442050521</v>
       </c>
-      <c r="C26" s="126">
+      <c r="C26" s="125">
         <v>26.786035772640684</v>
       </c>
-      <c r="D26" s="126">
+      <c r="D26" s="125">
         <v>110.45566063925806</v>
       </c>
-      <c r="E26" s="126">
-        <v>0</v>
-      </c>
-      <c r="F26" s="126">
+      <c r="E26" s="125">
+        <v>0</v>
+      </c>
+      <c r="F26" s="125">
         <v>0.15155791049396339</v>
       </c>
-      <c r="G26" s="126">
+      <c r="G26" s="125">
         <v>-0.13696846388606307</v>
       </c>
       <c r="H26" s="50">
@@ -10573,22 +10573,22 @@
       <c r="A27" s="94" t="s">
         <v>334</v>
       </c>
-      <c r="B27" s="126">
+      <c r="B27" s="125">
         <v>5.4426729883429829E-2</v>
       </c>
-      <c r="C27" s="126">
+      <c r="C27" s="125">
         <v>0.11051266724606544</v>
       </c>
-      <c r="D27" s="126">
+      <c r="D27" s="125">
         <v>0.3037489980061826</v>
       </c>
-      <c r="E27" s="126">
-        <v>0</v>
-      </c>
-      <c r="F27" s="126">
+      <c r="E27" s="125">
+        <v>0</v>
+      </c>
+      <c r="F27" s="125">
         <v>1.8326759701175711E-3</v>
       </c>
-      <c r="G27" s="126">
+      <c r="G27" s="125">
         <v>-2.864773818295105</v>
       </c>
       <c r="H27" s="50">
@@ -10647,22 +10647,22 @@
       <c r="A28" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="B28" s="126">
+      <c r="B28" s="125">
         <v>7.6631367002745324E-2</v>
       </c>
-      <c r="C28" s="126">
+      <c r="C28" s="125">
         <v>0.60362415258816537</v>
       </c>
-      <c r="D28" s="126">
+      <c r="D28" s="125">
         <v>0.58301417405342637</v>
       </c>
-      <c r="E28" s="126">
-        <v>0</v>
-      </c>
-      <c r="F28" s="126">
+      <c r="E28" s="125">
+        <v>0</v>
+      </c>
+      <c r="F28" s="125">
         <v>4.3544808165781679E-3</v>
       </c>
-      <c r="G28" s="126">
+      <c r="G28" s="125">
         <v>6.7901620841171184E-2</v>
       </c>
       <c r="H28" s="50">
@@ -10727,11 +10727,11 @@
       <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="126" t="s">
         <v>336</v>
       </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
       <c r="G30" s="17" t="s">
         <v>288</v>
       </c>
@@ -16626,40 +16626,40 @@
       <c r="A29" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="125"/>
-      <c r="Q29" s="125"/>
-      <c r="R29" s="125"/>
-      <c r="S29" s="125"/>
-      <c r="T29" s="125"/>
-      <c r="U29" s="125"/>
-      <c r="V29" s="125"/>
-      <c r="W29" s="125"/>
-      <c r="X29" s="125"/>
-      <c r="Y29" s="125"/>
-      <c r="Z29" s="125"/>
-      <c r="AA29" s="125"/>
-      <c r="AB29" s="125"/>
-      <c r="AC29" s="125"/>
-      <c r="AD29" s="125"/>
-      <c r="AE29" s="125"/>
-      <c r="AF29" s="125"/>
-      <c r="AG29" s="125"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="126"/>
+      <c r="T29" s="126"/>
+      <c r="U29" s="126"/>
+      <c r="V29" s="126"/>
+      <c r="W29" s="126"/>
+      <c r="X29" s="126"/>
+      <c r="Y29" s="126"/>
+      <c r="Z29" s="126"/>
+      <c r="AA29" s="126"/>
+      <c r="AB29" s="126"/>
+      <c r="AC29" s="126"/>
+      <c r="AD29" s="126"/>
+      <c r="AE29" s="126"/>
+      <c r="AF29" s="126"/>
+      <c r="AG29" s="126"/>
       <c r="AI29" s="91" t="s">
         <v>339</v>
       </c>
@@ -17828,22 +17828,22 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
       <c r="P23" t="s">
         <v>77</v>
       </c>
@@ -18581,8 +18581,8 @@
   </sheetPr>
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19042,8 +19042,8 @@
       <c r="A42" t="s">
         <v>208</v>
       </c>
-      <c r="B42" s="50">
-        <v>44.291949816853993</v>
+      <c r="B42" s="110">
+        <v>43.979867109548849</v>
       </c>
       <c r="C42">
         <v>793.37856525946859</v>
@@ -19075,8 +19075,8 @@
       <c r="A45" t="s">
         <v>323</v>
       </c>
-      <c r="B45" s="50">
-        <v>43.975450721892244</v>
+      <c r="B45" s="110">
+        <v>43.9700528928783</v>
       </c>
       <c r="C45">
         <v>793.37856525946859</v>
@@ -19086,8 +19086,8 @@
       <c r="A46" t="s">
         <v>324</v>
       </c>
-      <c r="B46" s="50">
-        <v>43.819577184272568</v>
+      <c r="B46" s="110">
+        <v>43.820862210478118</v>
       </c>
       <c r="C46">
         <v>793.37856525946859</v>
